--- a/en/Sample_Project/images/work.xlsx
+++ b/en/Sample_Project/images/work.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E38455-2013-4E1B-AB96-516BACCF899D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="345" yWindow="1725" windowWidth="24000" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成イメージ" sheetId="1" r:id="rId1"/>
@@ -14,25 +15,112 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{0A16C217-83ED-4226-98EF-5284B00A0BE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>作成者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+Webapplication
+↓
+Web application
+としてください。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR3" authorId="0" shapeId="0" xr:uid="{19C02A9D-DEF1-4A5C-BCD1-60EF92FC8848}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>作成者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+Startup batch of each timeではなく、on-demand batch
+としてください。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BZ3" authorId="0" shapeId="0" xr:uid="{83D67293-560C-4FED-96E6-EFC11892330E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>作成者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+Customer management systemで統一していただけますでしょうか。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>※</t>
-    <phoneticPr fontId="1"/>
+    <t>*</t>
   </si>
   <si>
-    <t>pngにして、横1200pxにして、pngにして使う。</t>
-    <rPh sb="24" eb="25">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>Change to png, change to horizontal1200px and use as png.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +134,27 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,8 +177,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -84,6 +194,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -106,7 +219,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -140,7 +259,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -161,7 +283,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -192,9 +320,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -216,7 +344,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -250,7 +384,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -271,7 +408,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -306,57 +449,62 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>プロジェクト管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Project management</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(Web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アプリケーション</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>(Web </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>application</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>実行基盤</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Execution platform</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -378,7 +526,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート : 磁気ディスク 2"/>
+        <xdr:cNvPr id="3" name="フローチャート : 磁気ディスク 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -413,36 +567,39 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>プロジェクト</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Project</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>管理</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>management </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>DB</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -464,7 +621,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -499,43 +662,47 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>常駐バッチ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Resident batch</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メッセージング実行基盤</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Messaging execution platform</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -557,7 +724,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -592,57 +765,70 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>都度起動バッチ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>On-demand</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> batch</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>バッチアプリケーション</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Batch application</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>実行基盤</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Execution platform</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -664,7 +850,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="41" idx="2"/>
@@ -721,7 +913,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="1"/>
           <a:endCxn id="3" idx="4"/>
@@ -776,7 +974,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="0"/>
           <a:endCxn id="3" idx="3"/>
@@ -818,21 +1022,27 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>182940</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>117386</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>44555</xdr:rowOff>
+      <xdr:rowOff>22143</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1569660" cy="317395"/>
+    <xdr:ext cx="1568956" cy="224998"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7183815" y="558905"/>
-          <a:ext cx="1569660" cy="317395"/>
+          <a:off x="6840915" y="593643"/>
+          <a:ext cx="1568956" cy="224998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -860,11 +1070,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>プロジェクト管理システム</a:t>
+            <a:rPr lang="ja-JP" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Project management system</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -886,7 +1097,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="フローチャート : 磁気ディスク 38"/>
+        <xdr:cNvPr id="39" name="フローチャート : 磁気ディスク 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -921,29 +1138,31 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>顧客管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Customer management</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>DB</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -965,7 +1184,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1000,64 +1225,70 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>顧客管理システム</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Customer management system</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>API</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>サーバ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>server</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>(Web</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>サービス実行基盤</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> service execution platform</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1079,7 +1310,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1110,9 +1347,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1134,7 +1371,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1166,11 +1409,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>関連システム群</a:t>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Associated system groups</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1179,21 +1423,27 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>35004</xdr:colOff>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>1387</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>25505</xdr:rowOff>
+      <xdr:rowOff>36710</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1107996" cy="317395"/>
+    <xdr:ext cx="1697324" cy="224998"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14236779" y="539855"/>
-          <a:ext cx="1107996" cy="317395"/>
+          <a:off x="12914566" y="608210"/>
+          <a:ext cx="1697324" cy="224998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1221,11 +1471,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>顧客管理システム</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Customer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> management system</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1234,21 +1493,27 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>178169</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>555</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="821956" cy="317395"/>
+    <xdr:ext cx="675057" cy="224998"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3178544" y="1200150"/>
-          <a:ext cx="821956" cy="317395"/>
+          <a:off x="4034673" y="1333500"/>
+          <a:ext cx="675057" cy="224998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1276,18 +1541,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>DB</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アクセス</a:t>
+            <a:rPr lang="ja-JP" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> access</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1301,16 +1568,22 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>15980</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="821956" cy="317395"/>
+    <xdr:ext cx="675057" cy="224998"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5600700" y="1216130"/>
-          <a:ext cx="821956" cy="317395"/>
+          <a:off x="6051176" y="1349480"/>
+          <a:ext cx="675057" cy="224998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1338,18 +1611,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>DB</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アクセス</a:t>
+            <a:rPr lang="ja-JP" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> access</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1358,21 +1633,27 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>178169</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>555</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="821956" cy="317395"/>
+    <xdr:ext cx="675057" cy="224998"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50"/>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4778744" y="2390775"/>
-          <a:ext cx="821956" cy="317395"/>
+          <a:off x="5379379" y="2638425"/>
+          <a:ext cx="675057" cy="224998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1400,18 +1681,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>DB</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アクセス</a:t>
+            <a:rPr lang="ja-JP" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> access</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1433,7 +1716,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="41" idx="0"/>
           <a:endCxn id="39" idx="3"/>
@@ -1480,16 +1769,22 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>25505</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="821956" cy="317395"/>
+    <xdr:ext cx="675057" cy="224998"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="テキスト ボックス 54"/>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10801350" y="2082905"/>
-          <a:ext cx="821956" cy="317395"/>
+          <a:off x="10421471" y="2311505"/>
+          <a:ext cx="675057" cy="224998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1517,18 +1812,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>DB</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アクセス</a:t>
+            <a:rPr lang="ja-JP" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> access</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1550,7 +1847,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="42" idx="1"/>
           <a:endCxn id="39" idx="4"/>
@@ -1605,7 +1908,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線矢印コネクタ 64"/>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="3" idx="2"/>
@@ -1652,16 +1961,22 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1308243" cy="317395"/>
+    <xdr:ext cx="1005340" cy="224998"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="テキスト ボックス 67"/>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6426057" y="4238625"/>
-          <a:ext cx="1308243" cy="317395"/>
+          <a:off x="6748786" y="4695825"/>
+          <a:ext cx="1005340" cy="224998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1689,29 +2004,32 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>API</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>呼び出し</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> call </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>(HTTP)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          <a:endParaRPr lang="ja-JP" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1733,7 +2051,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="円/楕円 71"/>
+        <xdr:cNvPr id="72" name="円/楕円 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1766,7 +2090,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="ja-JP" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1787,7 +2114,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線矢印コネクタ 72"/>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1829,16 +2162,22 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>143344</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1419225" cy="542456"/>
+    <xdr:ext cx="1419225" cy="357662"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="1172044"/>
-          <a:ext cx="1419225" cy="542456"/>
+          <a:off x="672353" y="1286344"/>
+          <a:ext cx="1419225" cy="357662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1866,24 +2205,26 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>・プロジェクト管理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="0">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Project management</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>・ユーザ管理</a:t>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>User management</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1897,16 +2238,22 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="806823" cy="317395"/>
+    <xdr:ext cx="806823" cy="224998"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="テキスト ボックス 76"/>
+        <xdr:cNvPr id="77" name="テキスト ボックス 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="201706" y="1916206"/>
-          <a:ext cx="806823" cy="317395"/>
+          <a:off x="168088" y="2162735"/>
+          <a:ext cx="806823" cy="224998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1934,11 +2281,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="0">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ユーザ</a:t>
+            <a:rPr lang="ja-JP" sz="900">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>User</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1954,31 +2302,43 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>82974</xdr:rowOff>
+      <xdr:rowOff>167056</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="45" name="グループ化 44"/>
+        <xdr:cNvPr id="45" name="グループ化 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1485900" y="1781175"/>
-          <a:ext cx="10391775" cy="3616749"/>
-          <a:chOff x="1485900" y="1781175"/>
-          <a:chExt cx="10391775" cy="3616749"/>
+          <a:off x="1503829" y="1880163"/>
+          <a:ext cx="10526246" cy="4192393"/>
+          <a:chOff x="1485900" y="1698777"/>
+          <a:chExt cx="10391775" cy="3774855"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="26" name="グループ化 25"/>
+          <xdr:cNvPr id="26" name="グループ化 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -1991,7 +2351,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="図 1" descr="パソコンを使う男性会社員のイラスト"/>
+            <xdr:cNvPr id="2" name="図 1" descr="Illustration of a male employee using a personal computer">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -2031,7 +2397,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+            <xdr:cNvPr id="5" name="テキスト ボックス 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2067,11 +2439,12 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:rPr lang="ja-JP" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>マネージャ</a:t>
+                <a:t>Manager</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2079,7 +2452,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="27" name="グループ化 26"/>
+          <xdr:cNvPr id="27" name="グループ化 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2092,7 +2471,13 @@
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="図 2" descr="パソコンを使う男性のイラスト"/>
+            <xdr:cNvPr id="3" name="図 2" descr="Illustration of a man using a personal computer">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -2132,7 +2517,13 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+            <xdr:cNvPr id="6" name="テキスト ボックス 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2168,11 +2559,12 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:rPr lang="ja-JP" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>メンバ</a:t>
+                <a:t>Member</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2180,20 +2572,32 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="40" name="グループ化 39"/>
+          <xdr:cNvPr id="40" name="グループ化 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="5781674" y="2562224"/>
-            <a:ext cx="1933575" cy="1771651"/>
+            <a:ext cx="1933575" cy="1971965"/>
             <a:chOff x="5514974" y="2552699"/>
-            <a:chExt cx="1933575" cy="1771651"/>
+            <a:chExt cx="1933575" cy="1971965"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="4" name="図 3" descr="サーバーのイラスト（1台）"/>
+            <xdr:cNvPr id="4" name="図 3" descr="Illustration of server (1 unit)">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -2233,13 +2637,19 @@
         </xdr:pic>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+            <xdr:cNvPr id="7" name="テキスト ボックス 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
               <a:off x="5514974" y="3924300"/>
-              <a:ext cx="1933575" cy="400050"/>
+              <a:ext cx="1933575" cy="600364"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2269,11 +2679,12 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:rPr lang="ja-JP" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>プロジェクト管理システム</a:t>
+                <a:t>Project management system</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2281,20 +2692,32 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="13" name="グループ化 12"/>
+          <xdr:cNvPr id="13" name="グループ化 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="3276600" y="1781175"/>
-            <a:ext cx="2609850" cy="714375"/>
-            <a:chOff x="3276600" y="1781175"/>
-            <a:chExt cx="2609850" cy="714375"/>
+            <a:off x="3290290" y="1698777"/>
+            <a:ext cx="2667673" cy="796773"/>
+            <a:chOff x="3290290" y="1698777"/>
+            <a:chExt cx="2667673" cy="796773"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+            <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2326,7 +2749,125 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="910135">
+              <a:off x="3290290" y="1698777"/>
+              <a:ext cx="2667673" cy="490079"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Register/update/delete all projects</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="14" name="グループ化 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="21173794">
+            <a:off x="3219450" y="2295525"/>
+            <a:ext cx="2609850" cy="714375"/>
+            <a:chOff x="3276600" y="1781175"/>
+            <a:chExt cx="2609850" cy="714375"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3476625" y="1924050"/>
+              <a:ext cx="2114550" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="テキスト ボックス 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2362,11 +2903,12 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:rPr lang="ja-JP" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>全プロジェクトの登録・更新・削除</a:t>
+                <a:t>Register customer</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2374,12 +2916,18 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="14" name="グループ化 13"/>
+          <xdr:cNvPr id="20" name="グループ化 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
-          <a:xfrm rot="21173794">
-            <a:off x="3219450" y="2295525"/>
+          <a:xfrm rot="20875244">
+            <a:off x="3209924" y="2800351"/>
             <a:ext cx="2609850" cy="714375"/>
             <a:chOff x="3276600" y="1781175"/>
             <a:chExt cx="2609850" cy="714375"/>
@@ -2387,7 +2935,13 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+            <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2419,7 +2973,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+            <xdr:cNvPr id="22" name="テキスト ボックス 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2455,11 +3015,12 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:rPr lang="ja-JP" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>顧客の登録</a:t>
+                <a:t>Batch registration of projects</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2467,20 +3028,32 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="20" name="グループ化 19"/>
+          <xdr:cNvPr id="23" name="グループ化 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
-          <a:xfrm rot="20875244">
-            <a:off x="3209924" y="2800351"/>
-            <a:ext cx="2609850" cy="714375"/>
-            <a:chOff x="3276600" y="1781175"/>
-            <a:chExt cx="2609850" cy="714375"/>
+          <a:xfrm rot="20363149">
+            <a:off x="2934344" y="3884047"/>
+            <a:ext cx="2997776" cy="740047"/>
+            <a:chOff x="3041259" y="1755503"/>
+            <a:chExt cx="2997776" cy="740047"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+            <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2512,7 +3085,125 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+            <xdr:cNvPr id="25" name="テキスト ボックス 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="910135">
+              <a:off x="3041259" y="1755503"/>
+              <a:ext cx="2997776" cy="373625"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="ja-JP" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>Linking users engaged in a project</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="28" name="グループ化 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="20595329">
+            <a:off x="3190875" y="3324225"/>
+            <a:ext cx="2609850" cy="714375"/>
+            <a:chOff x="3276600" y="1781175"/>
+            <a:chExt cx="2609850" cy="714375"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3476625" y="1924050"/>
+              <a:ext cx="2114550" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="テキスト ボックス 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2548,11 +3239,12 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:rPr lang="ja-JP" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>プロジェクトの一括登録</a:t>
+                <a:t>Search and browse projects</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2560,20 +3252,32 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="23" name="グループ化 22"/>
+          <xdr:cNvPr id="31" name="グループ化 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
-          <a:xfrm rot="20363149">
-            <a:off x="3007845" y="3896205"/>
-            <a:ext cx="2896071" cy="720053"/>
-            <a:chOff x="3112549" y="1775497"/>
-            <a:chExt cx="2896071" cy="720053"/>
+          <a:xfrm rot="20710753">
+            <a:off x="7610475" y="3067050"/>
+            <a:ext cx="2609850" cy="714375"/>
+            <a:chOff x="3276600" y="1781175"/>
+            <a:chExt cx="2609850" cy="714375"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
+            <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2585,7 +3289,8 @@
               <a:avLst/>
             </a:prstGeom>
             <a:ln w="38100">
-              <a:tailEnd type="arrow"/>
+              <a:headEnd type="arrow" w="med" len="med"/>
+              <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
           </xdr:spPr>
           <xdr:style>
@@ -2605,100 +3310,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="910135">
-              <a:off x="3112549" y="1775497"/>
-              <a:ext cx="2896071" cy="400050"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>プロジェクトに従事するユーザの紐付け</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="28" name="グループ化 27"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="20595329">
-            <a:off x="3190875" y="3324225"/>
-            <a:ext cx="2609850" cy="714375"/>
-            <a:chOff x="3276600" y="1781175"/>
-            <a:chExt cx="2609850" cy="714375"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3476625" y="1924050"/>
-              <a:ext cx="2114550" cy="571500"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="38100">
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+            <xdr:cNvPr id="33" name="テキスト ボックス 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2734,11 +3352,12 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:rPr lang="ja-JP" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>プロジェクトの検索・閲覧</a:t>
+                <a:t>Search and browse projects</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2746,20 +3365,32 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="31" name="グループ化 30"/>
+          <xdr:cNvPr id="34" name="グループ化 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
-          <a:xfrm rot="20710753">
-            <a:off x="7610475" y="3067050"/>
-            <a:ext cx="2609850" cy="714375"/>
-            <a:chOff x="3276600" y="1781175"/>
-            <a:chExt cx="2609850" cy="714375"/>
+          <a:xfrm rot="20289439">
+            <a:off x="7458268" y="2460964"/>
+            <a:ext cx="2825032" cy="654516"/>
+            <a:chOff x="3128266" y="1841034"/>
+            <a:chExt cx="2825032" cy="654516"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+            <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2792,13 +3423,19 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+            <xdr:cNvPr id="36" name="テキスト ボックス 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="910135">
-              <a:off x="3276600" y="1781175"/>
-              <a:ext cx="2609850" cy="400050"/>
+              <a:off x="3128266" y="1841034"/>
+              <a:ext cx="2825032" cy="400050"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2828,32 +3465,75 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:rPr lang="ja-JP" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>プロジェクトの検索・閲覧</a:t>
+                <a:t>Update/delete </a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>project</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> in charge</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Meiryo UI"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="34" name="グループ化 33"/>
+          <xdr:cNvPr id="37" name="グループ化 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
-          <a:xfrm rot="20289439">
-            <a:off x="7524649" y="2383606"/>
-            <a:ext cx="2825033" cy="703376"/>
-            <a:chOff x="3209574" y="1792174"/>
-            <a:chExt cx="2825033" cy="703376"/>
+          <a:xfrm rot="21124379">
+            <a:off x="7423251" y="3645362"/>
+            <a:ext cx="2988779" cy="848105"/>
+            <a:chOff x="3069877" y="1647445"/>
+            <a:chExt cx="2988779" cy="848105"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+            <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -2886,13 +3566,19 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+            <xdr:cNvPr id="39" name="テキスト ボックス 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="910135">
-              <a:off x="3209574" y="1792174"/>
-              <a:ext cx="2825033" cy="400050"/>
+              <a:off x="3069877" y="1647445"/>
+              <a:ext cx="2988779" cy="529874"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2922,11 +3608,12 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:rPr lang="ja-JP" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>担当プロジェクトの更新・削除</a:t>
+                <a:t>Check list of projects in charge</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2934,114 +3621,32 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="37" name="グループ化 36"/>
+          <xdr:cNvPr id="41" name="グループ化 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
-          <a:xfrm rot="21124379">
-            <a:off x="7572375" y="3781425"/>
-            <a:ext cx="2825033" cy="703376"/>
-            <a:chOff x="3209574" y="1792174"/>
-            <a:chExt cx="2825033" cy="703376"/>
+          <a:xfrm rot="19983549">
+            <a:off x="2134756" y="4522061"/>
+            <a:ext cx="3840094" cy="951571"/>
+            <a:chOff x="2204422" y="1543979"/>
+            <a:chExt cx="3840094" cy="951571"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3476625" y="1924050"/>
-              <a:ext cx="2114550" cy="571500"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="38100">
-              <a:headEnd type="arrow" w="med" len="med"/>
-              <a:tailEnd type="none" w="med" len="med"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="910135">
-              <a:off x="3209574" y="1792174"/>
-              <a:ext cx="2825033" cy="400050"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>担当プロジェクトの一覧確認</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="41" name="グループ化 40"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="19983549">
-            <a:off x="2476342" y="4599950"/>
-            <a:ext cx="3491645" cy="797974"/>
-            <a:chOff x="2527351" y="1697576"/>
-            <a:chExt cx="3491645" cy="797974"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
+            <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -3073,13 +3678,19 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
+            <xdr:cNvPr id="43" name="テキスト ボックス 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="910135">
-              <a:off x="2527351" y="1697576"/>
-              <a:ext cx="3491645" cy="400050"/>
+              <a:off x="2204422" y="1543979"/>
+              <a:ext cx="3840094" cy="519190"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3109,11 +3720,12 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:rPr lang="ja-JP" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Meiryo UI"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>各ユーザが従事しているプロジェクト一覧の抽出</a:t>
+                <a:t>Extract list of projects in which each user is engaged</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3126,7 +3738,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3168,7 +3780,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3201,9 +3813,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3236,6 +3865,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3411,40 +4057,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A32:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:BZ32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="2.5" style="1"/>
+  </cols>
   <sheetData>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="3" spans="15:78"/>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.125" style="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/en/Sample_Project/images/work.xlsx
+++ b/en/Sample_Project/images/work.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E38455-2013-4E1B-AB96-516BACCF899D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54616A4-E804-41E2-A646-41E0B3563B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1725" windowWidth="24000" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="25380" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成イメージ" sheetId="1" r:id="rId1"/>
@@ -13,98 +13,6 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{0A16C217-83ED-4226-98EF-5284B00A0BE1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Webapplication
-↓
-Web application
-としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AR3" authorId="0" shapeId="0" xr:uid="{19C02A9D-DEF1-4A5C-BCD1-60EF92FC8848}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Startup batch of each timeではなく、on-demand batch
-としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="BZ3" authorId="0" shapeId="0" xr:uid="{83D67293-560C-4FED-96E6-EFC11892330E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Customer management systemで統一していただけますでしょうか。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -120,7 +28,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,21 +48,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4057,18 +3950,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:BZ32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A32:B32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="15:78"/>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -4081,7 +3973,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4089,11 +3980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.125" style="1"/>
   </cols>

--- a/en/Sample_Project/images/work.xlsx
+++ b/en/Sample_Project/images/work.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54616A4-E804-41E2-A646-41E0B3563B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D422B7-17D3-4CEB-B025-62F256595D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="25380" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="システム構成イメージ" sheetId="1" r:id="rId1"/>
@@ -2217,8 +2217,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1503829" y="1880163"/>
-          <a:ext cx="10526246" cy="4192393"/>
+          <a:off x="1504950" y="1880163"/>
+          <a:ext cx="10534650" cy="4192393"/>
           <a:chOff x="1485900" y="1698777"/>
           <a:chExt cx="10391775" cy="3774855"/>
         </a:xfrm>
@@ -3953,7 +3953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A32:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3980,7 +3980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
